--- a/output/frequencies.xlsx
+++ b/output/frequencies.xlsx
@@ -21,6 +21,15 @@
   </si>
   <si>
     <t>Frequency</t>
+  </si>
+  <si>
+    <t>FSTAT</t>
+  </si>
+  <si>
+    <t>0. Censored</t>
+  </si>
+  <si>
+    <t>1. Death</t>
   </si>
   <si>
     <t>1. Underweight</t>
@@ -186,14 +195,15 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showGridLines="false" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.9921875" customWidth="true"/>
-    <col min="2" max="2" width="14" customWidth="true"/>
+    <col min="2" max="2" width="16.4140625" customWidth="true"/>
+    <col min="3" max="3" width="12.7890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -203,40 +213,74 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
-        <v>46</v>
-      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
-        <v>350</v>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>372</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>232</v>
+        <v>74</v>
+      </c>
+      <c r="C5" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>123</v>
+      </c>
+      <c r="C6" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
@@ -246,65 +290,103 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showGridLines="false" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.375" customWidth="true"/>
-    <col min="2" max="2" width="14" customWidth="true"/>
+    <col min="2" max="2" width="16.4140625" customWidth="true"/>
+    <col min="3" max="3" width="12.7890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3">
-        <v>22</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3">
-        <v>154</v>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
-        <v>272</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>228</v>
+        <v>66</v>
+      </c>
+      <c r="C5" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
-        <v>324</v>
+        <v>109</v>
+      </c>
+      <c r="C6" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>50</v>
+      </c>
+      <c r="C8" s="3">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
@@ -314,41 +396,70 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showGridLines="false" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.62109375" customWidth="true"/>
-    <col min="2" max="2" width="14" customWidth="true"/>
+    <col min="2" max="2" width="16.4140625" customWidth="true"/>
+    <col min="3" max="3" width="12.7890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3">
-        <v>332</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3">
-        <v>668</v>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3">
+        <v>78</v>
+      </c>
+      <c r="C4" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
+        <v>207</v>
+      </c>
+      <c r="C5" s="3">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>